--- a/Summaries/E0/Fulham_Wolves_adv.xlsx
+++ b/Summaries/E0/Fulham_Wolves_adv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="360">
   <si>
     <t>Div</t>
   </si>
@@ -511,133 +511,133 @@
     <t>Aer%</t>
   </si>
   <si>
-    <t>1212</t>
+    <t>1220</t>
   </si>
   <si>
     <t>45</t>
   </si>
   <si>
-    <t>787</t>
-  </si>
-  <si>
-    <t>789</t>
-  </si>
-  <si>
-    <t>1882</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>334</t>
-  </si>
-  <si>
-    <t>1162</t>
-  </si>
-  <si>
-    <t>1633</t>
-  </si>
-  <si>
-    <t>1720</t>
-  </si>
-  <si>
-    <t>2034</t>
-  </si>
-  <si>
-    <t>2068</t>
-  </si>
-  <si>
-    <t>2187</t>
+    <t>792</t>
+  </si>
+  <si>
+    <t>794</t>
+  </si>
+  <si>
+    <t>1894</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>1168</t>
+  </si>
+  <si>
+    <t>1644</t>
+  </si>
+  <si>
+    <t>1731</t>
+  </si>
+  <si>
+    <t>2048</t>
+  </si>
+  <si>
+    <t>2083</t>
+  </si>
+  <si>
+    <t>2202</t>
   </si>
   <si>
     <t>95</t>
   </si>
   <si>
-    <t>711</t>
-  </si>
-  <si>
-    <t>1160</t>
-  </si>
-  <si>
-    <t>1422</t>
-  </si>
-  <si>
-    <t>570</t>
-  </si>
-  <si>
-    <t>1439</t>
-  </si>
-  <si>
-    <t>1481</t>
-  </si>
-  <si>
-    <t>1748</t>
-  </si>
-  <si>
-    <t>1933</t>
-  </si>
-  <si>
-    <t>222</t>
+    <t>223</t>
+  </si>
+  <si>
+    <t>715</t>
+  </si>
+  <si>
+    <t>1166</t>
+  </si>
+  <si>
+    <t>1432</t>
+  </si>
+  <si>
+    <t>573</t>
+  </si>
+  <si>
+    <t>967</t>
+  </si>
+  <si>
+    <t>1449</t>
+  </si>
+  <si>
+    <t>1491</t>
+  </si>
+  <si>
+    <t>1759</t>
+  </si>
+  <si>
+    <t>1947</t>
+  </si>
+  <si>
+    <t>492</t>
+  </si>
+  <si>
+    <t>524</t>
+  </si>
+  <si>
+    <t>836</t>
+  </si>
+  <si>
+    <t>1861</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>389</t>
   </si>
   <si>
     <t>491</t>
   </si>
   <si>
-    <t>522</t>
-  </si>
-  <si>
-    <t>831</t>
-  </si>
-  <si>
-    <t>1849</t>
-  </si>
-  <si>
-    <t>1976</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>241</t>
-  </si>
-  <si>
-    <t>388</t>
-  </si>
-  <si>
-    <t>490</t>
-  </si>
-  <si>
-    <t>962</t>
-  </si>
-  <si>
-    <t>984</t>
-  </si>
-  <si>
-    <t>1960</t>
-  </si>
-  <si>
-    <t>314</t>
-  </si>
-  <si>
-    <t>584</t>
-  </si>
-  <si>
-    <t>607</t>
-  </si>
-  <si>
-    <t>788</t>
-  </si>
-  <si>
-    <t>887</t>
-  </si>
-  <si>
-    <t>993</t>
-  </si>
-  <si>
-    <t>1673</t>
-  </si>
-  <si>
-    <t>1795</t>
+    <t>989</t>
+  </si>
+  <si>
+    <t>1974</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>587</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>793</t>
+  </si>
+  <si>
+    <t>892</t>
+  </si>
+  <si>
+    <t>998</t>
+  </si>
+  <si>
+    <t>1684</t>
+  </si>
+  <si>
+    <t>1807</t>
   </si>
   <si>
     <t>Saša Lukić</t>
@@ -682,6 +682,9 @@
     <t>André</t>
   </si>
   <si>
+    <t>Jean-Ricner Bellegarde</t>
+  </si>
+  <si>
     <t>Carlos Forbs</t>
   </si>
   <si>
@@ -694,6 +697,9 @@
     <t>Issa Diop</t>
   </si>
   <si>
+    <t>Alex Iwobi</t>
+  </si>
+  <si>
     <t>Rodrigo Muniz</t>
   </si>
   <si>
@@ -706,9 +712,6 @@
     <t>Emile Smith Rowe</t>
   </si>
   <si>
-    <t>Jean-Ricner Bellegarde</t>
-  </si>
-  <si>
     <t>Matheus Cunha</t>
   </si>
   <si>
@@ -736,9 +739,6 @@
     <t>Jorge Cuenca</t>
   </si>
   <si>
-    <t>Alex Iwobi</t>
-  </si>
-  <si>
     <t>Raúl Jiménez</t>
   </si>
   <si>
@@ -802,15 +802,15 @@
     <t>wls WAL</t>
   </si>
   <si>
+    <t>fr FRA</t>
+  </si>
+  <si>
     <t>ga GAB</t>
   </si>
   <si>
     <t>co COL</t>
   </si>
   <si>
-    <t>fr FRA</t>
-  </si>
-  <si>
     <t>us USA</t>
   </si>
   <si>
@@ -856,133 +856,133 @@
     <t>eng Premier League</t>
   </si>
   <si>
-    <t>28-088</t>
-  </si>
-  <si>
-    <t>23-156</t>
-  </si>
-  <si>
-    <t>23-271</t>
-  </si>
-  <si>
-    <t>25-298</t>
-  </si>
-  <si>
-    <t>30-359</t>
-  </si>
-  <si>
-    <t>24-314</t>
-  </si>
-  <si>
-    <t>33-294</t>
-  </si>
-  <si>
-    <t>32-250</t>
-  </si>
-  <si>
-    <t>28-313</t>
-  </si>
-  <si>
-    <t>29-287</t>
-  </si>
-  <si>
-    <t>29-031</t>
-  </si>
-  <si>
-    <t>28-289</t>
-  </si>
-  <si>
-    <t>27-232</t>
-  </si>
-  <si>
-    <t>23-116</t>
-  </si>
-  <si>
-    <t>20-235</t>
-  </si>
-  <si>
-    <t>31-069</t>
-  </si>
-  <si>
-    <t>23-191</t>
-  </si>
-  <si>
-    <t>27-305</t>
-  </si>
-  <si>
-    <t>23-189</t>
-  </si>
-  <si>
-    <t>24-335</t>
-  </si>
-  <si>
-    <t>27-093</t>
-  </si>
-  <si>
-    <t>24-104</t>
-  </si>
-  <si>
-    <t>26-135</t>
-  </si>
-  <si>
-    <t>25-166</t>
-  </si>
-  <si>
-    <t>34-187</t>
-  </si>
-  <si>
-    <t>27-346</t>
-  </si>
-  <si>
-    <t>32-182</t>
-  </si>
-  <si>
-    <t>24-277</t>
-  </si>
-  <si>
-    <t>28-162</t>
-  </si>
-  <si>
-    <t>26-269</t>
-  </si>
-  <si>
-    <t>28-340</t>
-  </si>
-  <si>
-    <t>24-358</t>
-  </si>
-  <si>
-    <t>28-190</t>
-  </si>
-  <si>
-    <t>33-188</t>
-  </si>
-  <si>
-    <t>21-351</t>
-  </si>
-  <si>
-    <t>26-000</t>
-  </si>
-  <si>
-    <t>32-298</t>
-  </si>
-  <si>
-    <t>23-023</t>
-  </si>
-  <si>
-    <t>21-125</t>
-  </si>
-  <si>
-    <t>28-288</t>
-  </si>
-  <si>
-    <t>31-229</t>
-  </si>
-  <si>
-    <t>29-019</t>
-  </si>
-  <si>
-    <t>31-297</t>
+    <t>28-095</t>
+  </si>
+  <si>
+    <t>23-163</t>
+  </si>
+  <si>
+    <t>23-278</t>
+  </si>
+  <si>
+    <t>25-305</t>
+  </si>
+  <si>
+    <t>31-000</t>
+  </si>
+  <si>
+    <t>24-321</t>
+  </si>
+  <si>
+    <t>33-301</t>
+  </si>
+  <si>
+    <t>32-257</t>
+  </si>
+  <si>
+    <t>28-320</t>
+  </si>
+  <si>
+    <t>29-294</t>
+  </si>
+  <si>
+    <t>29-038</t>
+  </si>
+  <si>
+    <t>28-296</t>
+  </si>
+  <si>
+    <t>27-239</t>
+  </si>
+  <si>
+    <t>23-123</t>
+  </si>
+  <si>
+    <t>26-142</t>
+  </si>
+  <si>
+    <t>20-242</t>
+  </si>
+  <si>
+    <t>31-076</t>
+  </si>
+  <si>
+    <t>23-198</t>
+  </si>
+  <si>
+    <t>27-312</t>
+  </si>
+  <si>
+    <t>28-197</t>
+  </si>
+  <si>
+    <t>23-196</t>
+  </si>
+  <si>
+    <t>24-342</t>
+  </si>
+  <si>
+    <t>27-100</t>
+  </si>
+  <si>
+    <t>24-111</t>
+  </si>
+  <si>
+    <t>25-173</t>
+  </si>
+  <si>
+    <t>34-194</t>
+  </si>
+  <si>
+    <t>27-353</t>
+  </si>
+  <si>
+    <t>32-189</t>
+  </si>
+  <si>
+    <t>24-284</t>
+  </si>
+  <si>
+    <t>28-169</t>
+  </si>
+  <si>
+    <t>26-276</t>
+  </si>
+  <si>
+    <t>28-347</t>
+  </si>
+  <si>
+    <t>24-365</t>
+  </si>
+  <si>
+    <t>33-195</t>
+  </si>
+  <si>
+    <t>21-358</t>
+  </si>
+  <si>
+    <t>26-007</t>
+  </si>
+  <si>
+    <t>32-305</t>
+  </si>
+  <si>
+    <t>23-030</t>
+  </si>
+  <si>
+    <t>21-132</t>
+  </si>
+  <si>
+    <t>28-295</t>
+  </si>
+  <si>
+    <t>31-236</t>
+  </si>
+  <si>
+    <t>29-026</t>
+  </si>
+  <si>
+    <t>31-304</t>
   </si>
   <si>
     <t>1996</t>
@@ -1009,16 +1009,13 @@
     <t>1997</t>
   </si>
   <si>
+    <t>1998</t>
+  </si>
+  <si>
     <t>2004</t>
   </si>
   <si>
     <t>2000</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>1990</t>
   </si>
   <si>
     <t>2002</t>
@@ -3785,7 +3782,7 @@
         <v>165</v>
       </c>
       <c r="B2" t="n">
-        <v>1230.0</v>
+        <v>1238.0</v>
       </c>
       <c r="C2" t="s">
         <v>208</v>
@@ -3889,7 +3886,7 @@
         <v>324</v>
       </c>
       <c r="J3" t="n">
-        <v>9.3</v>
+        <v>10.2</v>
       </c>
       <c r="K3" t="n">
         <v>4.0</v>
@@ -3901,10 +3898,10 @@
         <v>0.0</v>
       </c>
       <c r="N3" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="P3" t="n">
         <v>1.0</v>
@@ -3916,7 +3913,7 @@
         <v>11.0</v>
       </c>
       <c r="S3" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="T3" t="n">
         <v>0.0</v>
@@ -3928,16 +3925,16 @@
         <v>0.0</v>
       </c>
       <c r="W3" t="n">
-        <v>40.0</v>
+        <v>47.0</v>
       </c>
       <c r="X3" t="n">
         <v>5.0</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="Z3" t="n">
-        <v>41.7</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="4">
@@ -3945,7 +3942,7 @@
         <v>167</v>
       </c>
       <c r="B4" t="n">
-        <v>804.0</v>
+        <v>809.0</v>
       </c>
       <c r="C4" t="s">
         <v>210</v>
@@ -3969,7 +3966,7 @@
         <v>324</v>
       </c>
       <c r="J4" t="n">
-        <v>9.3</v>
+        <v>10.3</v>
       </c>
       <c r="K4" t="n">
         <v>4.0</v>
@@ -3981,7 +3978,7 @@
         <v>0.0</v>
       </c>
       <c r="N4" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="O4" t="n">
         <v>9.0</v>
@@ -3993,7 +3990,7 @@
         <v>8.0</v>
       </c>
       <c r="R4" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="S4" t="n">
         <v>20.0</v>
@@ -4008,7 +4005,7 @@
         <v>0.0</v>
       </c>
       <c r="W4" t="n">
-        <v>57.0</v>
+        <v>60.0</v>
       </c>
       <c r="X4" t="n">
         <v>4.0</v>
@@ -4025,7 +4022,7 @@
         <v>168</v>
       </c>
       <c r="B5" t="n">
-        <v>806.0</v>
+        <v>811.0</v>
       </c>
       <c r="C5" t="s">
         <v>211</v>
@@ -4049,7 +4046,7 @@
         <v>325</v>
       </c>
       <c r="J5" t="n">
-        <v>7.2</v>
+        <v>8.2</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -4061,13 +4058,13 @@
         <v>0.0</v>
       </c>
       <c r="N5" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="O5" t="n">
         <v>4.0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q5" t="n">
         <v>1.0</v>
@@ -4076,7 +4073,7 @@
         <v>4.0</v>
       </c>
       <c r="S5" t="n">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
       <c r="T5" t="n">
         <v>0.0</v>
@@ -4088,7 +4085,7 @@
         <v>0.0</v>
       </c>
       <c r="W5" t="n">
-        <v>19.0</v>
+        <v>25.0</v>
       </c>
       <c r="X5" t="n">
         <v>15.0</v>
@@ -4105,7 +4102,7 @@
         <v>169</v>
       </c>
       <c r="B6" t="n">
-        <v>1909.0</v>
+        <v>1921.0</v>
       </c>
       <c r="C6" t="s">
         <v>212</v>
@@ -4129,7 +4126,7 @@
         <v>326</v>
       </c>
       <c r="J6" t="n">
-        <v>7.7</v>
+        <v>8.7</v>
       </c>
       <c r="K6" t="n">
         <v>4.0</v>
@@ -4141,10 +4138,10 @@
         <v>0.0</v>
       </c>
       <c r="N6" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="O6" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="P6" t="n">
         <v>0.0</v>
@@ -4153,31 +4150,31 @@
         <v>8.0</v>
       </c>
       <c r="R6" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="S6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>9.0</v>
       </c>
-      <c r="T6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>8.0</v>
-      </c>
       <c r="Z6" t="n">
-        <v>55.6</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="7">
@@ -4185,7 +4182,7 @@
         <v>170</v>
       </c>
       <c r="B7" t="n">
-        <v>205.0</v>
+        <v>206.0</v>
       </c>
       <c r="C7" t="s">
         <v>213</v>
@@ -4209,7 +4206,7 @@
         <v>325</v>
       </c>
       <c r="J7" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K7" t="n">
         <v>3.0</v>
@@ -4224,7 +4221,7 @@
         <v>8.0</v>
       </c>
       <c r="O7" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="P7" t="n">
         <v>1.0</v>
@@ -4248,16 +4245,16 @@
         <v>0.0</v>
       </c>
       <c r="W7" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="Z7" t="n">
         <v>37.0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>27.3</v>
       </c>
     </row>
     <row r="8">
@@ -4265,7 +4262,7 @@
         <v>171</v>
       </c>
       <c r="B8" t="n">
-        <v>341.0</v>
+        <v>342.0</v>
       </c>
       <c r="C8" t="s">
         <v>214</v>
@@ -4289,7 +4286,7 @@
         <v>327</v>
       </c>
       <c r="J8" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="K8" t="n">
         <v>2.0</v>
@@ -4328,16 +4325,16 @@
         <v>0.0</v>
       </c>
       <c r="W8" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y8" t="n">
         <v>3.0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="9">
@@ -4345,7 +4342,7 @@
         <v>172</v>
       </c>
       <c r="B9" t="n">
-        <v>1180.0</v>
+        <v>1186.0</v>
       </c>
       <c r="C9" t="s">
         <v>215</v>
@@ -4369,7 +4366,7 @@
         <v>328</v>
       </c>
       <c r="J9" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K9" t="n">
         <v>2.0</v>
@@ -4425,7 +4422,7 @@
         <v>173</v>
       </c>
       <c r="B10" t="n">
-        <v>1656.0</v>
+        <v>1667.0</v>
       </c>
       <c r="C10" t="s">
         <v>216</v>
@@ -4449,7 +4446,7 @@
         <v>323</v>
       </c>
       <c r="J10" t="n">
-        <v>8.4</v>
+        <v>9.3</v>
       </c>
       <c r="K10" t="n">
         <v>2.0</v>
@@ -4470,10 +4467,10 @@
         <v>0.0</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.0</v>
+        <v>78.0</v>
       </c>
       <c r="R10" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="S10" t="n">
         <v>2.0</v>
@@ -4488,16 +4485,16 @@
         <v>0.0</v>
       </c>
       <c r="W10" t="n">
-        <v>38.0</v>
+        <v>45.0</v>
       </c>
       <c r="X10" t="n">
         <v>6.0</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z10" t="n">
-        <v>46.2</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="11">
@@ -4505,7 +4502,7 @@
         <v>174</v>
       </c>
       <c r="B11" t="n">
-        <v>1743.0</v>
+        <v>1754.0</v>
       </c>
       <c r="C11" t="s">
         <v>217</v>
@@ -4568,7 +4565,7 @@
         <v>0.0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="X11" t="n">
         <v>1.0</v>
@@ -4585,7 +4582,7 @@
         <v>175</v>
       </c>
       <c r="B12" t="n">
-        <v>2061.0</v>
+        <v>2075.0</v>
       </c>
       <c r="C12" t="s">
         <v>218</v>
@@ -4609,7 +4606,7 @@
         <v>329</v>
       </c>
       <c r="J12" t="n">
-        <v>9.6</v>
+        <v>10.6</v>
       </c>
       <c r="K12" t="n">
         <v>2.0</v>
@@ -4621,22 +4618,22 @@
         <v>0.0</v>
       </c>
       <c r="N12" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="O12" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="P12" t="n">
         <v>0.0</v>
       </c>
       <c r="Q12" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="S12" t="n">
-        <v>14.0</v>
+        <v>18.0</v>
       </c>
       <c r="T12" t="n">
         <v>0.0</v>
@@ -4648,16 +4645,16 @@
         <v>0.0</v>
       </c>
       <c r="W12" t="n">
-        <v>32.0</v>
+        <v>35.0</v>
       </c>
       <c r="X12" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>10.0</v>
       </c>
-      <c r="Y12" t="n">
-        <v>7.0</v>
-      </c>
       <c r="Z12" t="n">
-        <v>58.8</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="13">
@@ -4665,7 +4662,7 @@
         <v>176</v>
       </c>
       <c r="B13" t="n">
-        <v>2095.0</v>
+        <v>2110.0</v>
       </c>
       <c r="C13" t="s">
         <v>219</v>
@@ -4710,7 +4707,7 @@
         <v>1.0</v>
       </c>
       <c r="Q13" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="R13" t="n">
         <v>1.0</v>
@@ -4745,7 +4742,7 @@
         <v>177</v>
       </c>
       <c r="B14" t="n">
-        <v>2217.0</v>
+        <v>2232.0</v>
       </c>
       <c r="C14" t="s">
         <v>220</v>
@@ -4769,7 +4766,7 @@
         <v>330</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K14" t="n">
         <v>2.0</v>
@@ -4781,7 +4778,7 @@
         <v>0.0</v>
       </c>
       <c r="N14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="O14" t="n">
         <v>3.0</v>
@@ -4796,7 +4793,7 @@
         <v>0.0</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T14" t="n">
         <v>0.0</v>
@@ -4905,13 +4902,13 @@
         <v>179</v>
       </c>
       <c r="B16" t="n">
-        <v>726.0</v>
+        <v>228.0</v>
       </c>
       <c r="C16" t="s">
         <v>222</v>
       </c>
       <c r="D16" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E16" t="s">
         <v>277</v>
@@ -4929,7 +4926,7 @@
         <v>331</v>
       </c>
       <c r="J16" t="n">
-        <v>2.0</v>
+        <v>5.3</v>
       </c>
       <c r="K16" t="n">
         <v>2.0</v>
@@ -4941,22 +4938,22 @@
         <v>0.0</v>
       </c>
       <c r="N16" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.0</v>
+        <v>14.0</v>
       </c>
       <c r="P16" t="n">
         <v>0.0</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="S16" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="T16" t="n">
         <v>0.0</v>
@@ -4968,16 +4965,16 @@
         <v>0.0</v>
       </c>
       <c r="W16" t="n">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
       <c r="X16" t="n">
         <v>1.0</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="Z16" t="n">
-        <v>33.3</v>
+        <v>8.3</v>
       </c>
     </row>
     <row r="17">
@@ -4985,16 +4982,16 @@
         <v>180</v>
       </c>
       <c r="B17" t="n">
-        <v>1178.0</v>
+        <v>730.0</v>
       </c>
       <c r="C17" t="s">
         <v>223</v>
       </c>
       <c r="D17" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E17" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F17" t="s">
         <v>97</v>
@@ -5006,10 +5003,10 @@
         <v>295</v>
       </c>
       <c r="I17" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="J17" t="n">
-        <v>8.8</v>
+        <v>2.0</v>
       </c>
       <c r="K17" t="n">
         <v>2.0</v>
@@ -5021,43 +5018,43 @@
         <v>0.0</v>
       </c>
       <c r="N17" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="O17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S17" t="n">
         <v>5.0</v>
       </c>
-      <c r="P17" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>17.0</v>
-      </c>
       <c r="T17" t="n">
         <v>0.0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V17" t="n">
         <v>0.0</v>
       </c>
       <c r="W17" t="n">
-        <v>38.0</v>
+        <v>9.0</v>
       </c>
       <c r="X17" t="n">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z17" t="n">
-        <v>75.0</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="18">
@@ -5065,7 +5062,7 @@
         <v>181</v>
       </c>
       <c r="B18" t="n">
-        <v>1442.0</v>
+        <v>1184.0</v>
       </c>
       <c r="C18" t="s">
         <v>224</v>
@@ -5074,7 +5071,7 @@
         <v>263</v>
       </c>
       <c r="E18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F18" t="s">
         <v>97</v>
@@ -5086,10 +5083,10 @@
         <v>296</v>
       </c>
       <c r="I18" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="J18" t="n">
-        <v>4.9</v>
+        <v>9.8</v>
       </c>
       <c r="K18" t="n">
         <v>2.0</v>
@@ -5101,43 +5098,43 @@
         <v>0.0</v>
       </c>
       <c r="N18" t="n">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
       <c r="O18" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="R18" t="n">
-        <v>10.0</v>
+        <v>21.0</v>
       </c>
       <c r="S18" t="n">
-        <v>7.0</v>
+        <v>19.0</v>
       </c>
       <c r="T18" t="n">
         <v>0.0</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V18" t="n">
         <v>0.0</v>
       </c>
       <c r="W18" t="n">
-        <v>24.0</v>
+        <v>42.0</v>
       </c>
       <c r="X18" t="n">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="Z18" t="n">
-        <v>64.7</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="19">
@@ -5145,7 +5142,7 @@
         <v>182</v>
       </c>
       <c r="B19" t="n">
-        <v>583.0</v>
+        <v>1452.0</v>
       </c>
       <c r="C19" t="s">
         <v>225</v>
@@ -5157,7 +5154,7 @@
         <v>274</v>
       </c>
       <c r="F19" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G19" t="s">
         <v>279</v>
@@ -5166,13 +5163,13 @@
         <v>297</v>
       </c>
       <c r="I19" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="J19" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="K19" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L19" t="n">
         <v>0.0</v>
@@ -5181,22 +5178,22 @@
         <v>0.0</v>
       </c>
       <c r="N19" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="O19" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="P19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="S19" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="T19" t="n">
         <v>0.0</v>
@@ -5205,19 +5202,19 @@
         <v>0.0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W19" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="X19" t="n">
         <v>11.0</v>
       </c>
-      <c r="X19" t="n">
-        <v>4.0</v>
-      </c>
       <c r="Y19" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="Z19" t="n">
-        <v>50.0</v>
+        <v>64.7</v>
       </c>
     </row>
     <row r="20">
@@ -5225,16 +5222,16 @@
         <v>183</v>
       </c>
       <c r="B20" t="n">
-        <v>1459.0</v>
+        <v>586.0</v>
       </c>
       <c r="C20" t="s">
         <v>226</v>
       </c>
       <c r="D20" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="E20" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F20" t="s">
         <v>94</v>
@@ -5246,10 +5243,10 @@
         <v>298</v>
       </c>
       <c r="I20" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="J20" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="K20" t="n">
         <v>1.0</v>
@@ -5261,23 +5258,23 @@
         <v>0.0</v>
       </c>
       <c r="N20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S20" t="n">
         <v>5.0</v>
       </c>
-      <c r="O20" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0.0</v>
-      </c>
       <c r="T20" t="n">
         <v>0.0</v>
       </c>
@@ -5285,19 +5282,19 @@
         <v>0.0</v>
       </c>
       <c r="V20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W20" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="X20" t="n">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
       <c r="Y20" t="n">
-        <v>20.0</v>
+        <v>4.0</v>
       </c>
       <c r="Z20" t="n">
-        <v>44.4</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="21">
@@ -5305,16 +5302,16 @@
         <v>184</v>
       </c>
       <c r="B21" t="n">
-        <v>1503.0</v>
+        <v>985.0</v>
       </c>
       <c r="C21" t="s">
         <v>227</v>
       </c>
       <c r="D21" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E21" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F21" t="s">
         <v>94</v>
@@ -5326,10 +5323,10 @@
         <v>299</v>
       </c>
       <c r="I21" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J21" t="n">
-        <v>2.3</v>
+        <v>10.5</v>
       </c>
       <c r="K21" t="n">
         <v>1.0</v>
@@ -5344,40 +5341,40 @@
         <v>4.0</v>
       </c>
       <c r="O21" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="P21" t="n">
         <v>1.0</v>
       </c>
       <c r="Q21" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Y21" t="n">
         <v>14.0</v>
       </c>
-      <c r="R21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>3.0</v>
-      </c>
       <c r="Z21" t="n">
-        <v>0.0</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="22">
@@ -5385,16 +5382,16 @@
         <v>185</v>
       </c>
       <c r="B22" t="n">
-        <v>1772.0</v>
+        <v>1469.0</v>
       </c>
       <c r="C22" t="s">
         <v>228</v>
       </c>
       <c r="D22" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="E22" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F22" t="s">
         <v>94</v>
@@ -5406,10 +5403,10 @@
         <v>300</v>
       </c>
       <c r="I22" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="J22" t="n">
-        <v>10.0</v>
+        <v>3.6</v>
       </c>
       <c r="K22" t="n">
         <v>1.0</v>
@@ -5421,43 +5418,43 @@
         <v>0.0</v>
       </c>
       <c r="N22" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O22" t="n">
         <v>8.0</v>
       </c>
-      <c r="O22" t="n">
-        <v>1.0</v>
-      </c>
       <c r="P22" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q22" t="n">
-        <v>42.0</v>
+        <v>0.0</v>
       </c>
       <c r="R22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X22" t="n">
         <v>16.0</v>
       </c>
-      <c r="S22" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>11.0</v>
-      </c>
       <c r="Y22" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="Z22" t="n">
-        <v>68.8</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="23">
@@ -5465,7 +5462,7 @@
         <v>186</v>
       </c>
       <c r="B23" t="n">
-        <v>1960.0</v>
+        <v>1513.0</v>
       </c>
       <c r="C23" t="s">
         <v>229</v>
@@ -5474,7 +5471,7 @@
         <v>258</v>
       </c>
       <c r="E23" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="F23" t="s">
         <v>94</v>
@@ -5486,10 +5483,10 @@
         <v>301</v>
       </c>
       <c r="I23" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="J23" t="n">
-        <v>7.9</v>
+        <v>3.2</v>
       </c>
       <c r="K23" t="n">
         <v>1.0</v>
@@ -5501,22 +5498,22 @@
         <v>0.0</v>
       </c>
       <c r="N23" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O23" t="n">
         <v>6.0</v>
       </c>
-      <c r="O23" t="n">
-        <v>7.0</v>
-      </c>
       <c r="P23" t="n">
         <v>1.0</v>
       </c>
       <c r="Q23" t="n">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="R23" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="S23" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="T23" t="n">
         <v>0.0</v>
@@ -5528,16 +5525,16 @@
         <v>0.0</v>
       </c>
       <c r="W23" t="n">
-        <v>22.0</v>
+        <v>18.0</v>
       </c>
       <c r="X23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>4.0</v>
       </c>
-      <c r="Y23" t="n">
-        <v>5.0</v>
-      </c>
       <c r="Z23" t="n">
-        <v>44.4</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="24">
@@ -5545,19 +5542,19 @@
         <v>187</v>
       </c>
       <c r="B24" t="n">
-        <v>227.0</v>
+        <v>1783.0</v>
       </c>
       <c r="C24" t="s">
         <v>230</v>
       </c>
       <c r="D24" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E24" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G24" t="s">
         <v>279</v>
@@ -5566,10 +5563,10 @@
         <v>302</v>
       </c>
       <c r="I24" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="J24" t="n">
-        <v>4.8</v>
+        <v>11.0</v>
       </c>
       <c r="K24" t="n">
         <v>1.0</v>
@@ -5581,43 +5578,43 @@
         <v>0.0</v>
       </c>
       <c r="N24" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Y24" t="n">
         <v>7.0</v>
       </c>
-      <c r="O24" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>10.0</v>
-      </c>
       <c r="Z24" t="n">
-        <v>9.1</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="25">
@@ -5625,19 +5622,19 @@
         <v>188</v>
       </c>
       <c r="B25" t="n">
-        <v>502.0</v>
+        <v>1974.0</v>
       </c>
       <c r="C25" t="s">
         <v>231</v>
       </c>
       <c r="D25" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E25" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G25" t="s">
         <v>279</v>
@@ -5646,10 +5643,10 @@
         <v>303</v>
       </c>
       <c r="I25" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="J25" t="n">
-        <v>8.9</v>
+        <v>8.8</v>
       </c>
       <c r="K25" t="n">
         <v>1.0</v>
@@ -5661,43 +5658,43 @@
         <v>0.0</v>
       </c>
       <c r="N25" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S25" t="n">
         <v>11.0</v>
       </c>
-      <c r="O25" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="R25" t="n">
+      <c r="T25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="X25" t="n">
         <v>4.0</v>
       </c>
-      <c r="S25" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>3.0</v>
-      </c>
       <c r="Y25" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="Z25" t="n">
-        <v>23.1</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="26">
@@ -5705,16 +5702,16 @@
         <v>189</v>
       </c>
       <c r="B26" t="n">
-        <v>535.0</v>
+        <v>503.0</v>
       </c>
       <c r="C26" t="s">
         <v>232</v>
       </c>
       <c r="D26" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E26" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F26" t="s">
         <v>97</v>
@@ -5726,10 +5723,10 @@
         <v>304</v>
       </c>
       <c r="I26" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="J26" t="n">
-        <v>7.3</v>
+        <v>9.8</v>
       </c>
       <c r="K26" t="n">
         <v>1.0</v>
@@ -5741,43 +5738,43 @@
         <v>0.0</v>
       </c>
       <c r="N26" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="X26" t="n">
         <v>3.0</v>
       </c>
-      <c r="O26" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>15.0</v>
-      </c>
       <c r="Y26" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="Z26" t="n">
-        <v>65.2</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="27">
@@ -5785,16 +5782,16 @@
         <v>190</v>
       </c>
       <c r="B27" t="n">
-        <v>849.0</v>
+        <v>537.0</v>
       </c>
       <c r="C27" t="s">
         <v>233</v>
       </c>
       <c r="D27" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E27" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F27" t="s">
         <v>97</v>
@@ -5806,10 +5803,10 @@
         <v>305</v>
       </c>
       <c r="I27" t="s">
-        <v>323</v>
+        <v>193</v>
       </c>
       <c r="J27" t="n">
-        <v>1.2</v>
+        <v>8.3</v>
       </c>
       <c r="K27" t="n">
         <v>1.0</v>
@@ -5821,23 +5818,23 @@
         <v>0.0</v>
       </c>
       <c r="N27" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="O27" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="S27" t="n">
         <v>3.0</v>
       </c>
-      <c r="P27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>2.0</v>
-      </c>
       <c r="T27" t="n">
         <v>0.0</v>
       </c>
@@ -5848,16 +5845,16 @@
         <v>0.0</v>
       </c>
       <c r="W27" t="n">
-        <v>5.0</v>
+        <v>26.0</v>
       </c>
       <c r="X27" t="n">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
       <c r="Y27" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="Z27" t="n">
-        <v>33.3</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="28">
@@ -5865,16 +5862,16 @@
         <v>191</v>
       </c>
       <c r="B28" t="n">
-        <v>1876.0</v>
+        <v>854.0</v>
       </c>
       <c r="C28" t="s">
         <v>234</v>
       </c>
       <c r="D28" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F28" t="s">
         <v>97</v>
@@ -5886,10 +5883,10 @@
         <v>306</v>
       </c>
       <c r="I28" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J28" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="K28" t="n">
         <v>1.0</v>
@@ -5901,16 +5898,16 @@
         <v>0.0</v>
       </c>
       <c r="N28" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="O28" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q28" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="R28" t="n">
         <v>2.0</v>
@@ -5928,16 +5925,16 @@
         <v>0.0</v>
       </c>
       <c r="W28" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="X28" t="n">
         <v>1.0</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z28" t="n">
-        <v>20.0</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="29">
@@ -5945,16 +5942,16 @@
         <v>192</v>
       </c>
       <c r="B29" t="n">
-        <v>2003.0</v>
+        <v>1888.0</v>
       </c>
       <c r="C29" t="s">
         <v>235</v>
       </c>
       <c r="D29" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F29" t="s">
         <v>97</v>
@@ -5966,10 +5963,10 @@
         <v>307</v>
       </c>
       <c r="I29" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J29" t="n">
-        <v>9.1</v>
+        <v>2.0</v>
       </c>
       <c r="K29" t="n">
         <v>1.0</v>
@@ -5981,43 +5978,43 @@
         <v>0.0</v>
       </c>
       <c r="N29" t="n">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c r="O29" t="n">
         <v>4.0</v>
       </c>
       <c r="P29" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="R29" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="S29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>4.0</v>
       </c>
-      <c r="T29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>34.0</v>
-      </c>
       <c r="Z29" t="n">
-        <v>41.4</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="30">
@@ -6025,19 +6022,19 @@
         <v>193</v>
       </c>
       <c r="B30" t="n">
-        <v>95.0</v>
+        <v>2017.0</v>
       </c>
       <c r="C30" t="s">
         <v>236</v>
       </c>
       <c r="D30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E30" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F30" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G30" t="s">
         <v>279</v>
@@ -6046,37 +6043,37 @@
         <v>308</v>
       </c>
       <c r="I30" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="J30" t="n">
-        <v>5.7</v>
+        <v>9.9</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M30" t="n">
         <v>0.0</v>
       </c>
       <c r="N30" t="n">
-        <v>2.0</v>
+        <v>16.0</v>
       </c>
       <c r="O30" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P30" t="n">
         <v>5.0</v>
       </c>
-      <c r="P30" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Q30" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="R30" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="S30" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="T30" t="n">
         <v>0.0</v>
@@ -6088,16 +6085,16 @@
         <v>0.0</v>
       </c>
       <c r="W30" t="n">
-        <v>22.0</v>
+        <v>11.0</v>
       </c>
       <c r="X30" t="n">
-        <v>14.0</v>
+        <v>25.0</v>
       </c>
       <c r="Y30" t="n">
-        <v>12.0</v>
+        <v>34.0</v>
       </c>
       <c r="Z30" t="n">
-        <v>53.8</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="31">
@@ -6105,16 +6102,16 @@
         <v>194</v>
       </c>
       <c r="B31" t="n">
-        <v>246.0</v>
+        <v>95.0</v>
       </c>
       <c r="C31" t="s">
         <v>237</v>
       </c>
       <c r="D31" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F31" t="s">
         <v>94</v>
@@ -6126,37 +6123,37 @@
         <v>309</v>
       </c>
       <c r="I31" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J31" t="n">
-        <v>4.8</v>
+        <v>6.7</v>
       </c>
       <c r="K31" t="n">
         <v>0.0</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M31" t="n">
         <v>0.0</v>
       </c>
       <c r="N31" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="O31" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="P31" t="n">
         <v>0.0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R31" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="S31" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="T31" t="n">
         <v>0.0</v>
@@ -6168,16 +6165,16 @@
         <v>0.0</v>
       </c>
       <c r="W31" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="X31" t="n">
-        <v>8.0</v>
+        <v>17.0</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z31" t="n">
-        <v>80.0</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="32">
@@ -6185,16 +6182,16 @@
         <v>195</v>
       </c>
       <c r="B32" t="n">
-        <v>396.0</v>
+        <v>247.0</v>
       </c>
       <c r="C32" t="s">
         <v>238</v>
       </c>
       <c r="D32" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E32" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F32" t="s">
         <v>94</v>
@@ -6206,10 +6203,10 @@
         <v>310</v>
       </c>
       <c r="I32" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="J32" t="n">
-        <v>0.4</v>
+        <v>5.8</v>
       </c>
       <c r="K32" t="n">
         <v>0.0</v>
@@ -6221,22 +6218,22 @@
         <v>0.0</v>
       </c>
       <c r="N32" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="O32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R32" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="S32" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="T32" t="n">
         <v>0.0</v>
@@ -6248,16 +6245,16 @@
         <v>0.0</v>
       </c>
       <c r="W32" t="n">
-        <v>3.0</v>
+        <v>36.0</v>
       </c>
       <c r="X32" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="Y32" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="Z32" t="n">
-        <v>50.0</v>
+        <v>73.3</v>
       </c>
     </row>
     <row r="33">
@@ -6265,13 +6262,13 @@
         <v>196</v>
       </c>
       <c r="B33" t="n">
-        <v>501.0</v>
+        <v>397.0</v>
       </c>
       <c r="C33" t="s">
         <v>239</v>
       </c>
       <c r="D33" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="E33" t="s">
         <v>274</v>
@@ -6286,10 +6283,10 @@
         <v>311</v>
       </c>
       <c r="I33" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="K33" t="n">
         <v>0.0</v>
@@ -6307,16 +6304,16 @@
         <v>0.0</v>
       </c>
       <c r="P33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R33" t="n">
         <v>0.0</v>
       </c>
       <c r="S33" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T33" t="n">
         <v>0.0</v>
@@ -6328,16 +6325,16 @@
         <v>0.0</v>
       </c>
       <c r="W33" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="X33" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z33" t="n">
-        <v>100.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="34">
@@ -6345,16 +6342,16 @@
         <v>197</v>
       </c>
       <c r="B34" t="n">
-        <v>980.0</v>
+        <v>502.0</v>
       </c>
       <c r="C34" t="s">
         <v>240</v>
       </c>
       <c r="D34" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E34" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F34" t="s">
         <v>94</v>
@@ -6366,10 +6363,10 @@
         <v>312</v>
       </c>
       <c r="I34" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J34" t="n">
-        <v>9.5</v>
+        <v>0.0</v>
       </c>
       <c r="K34" t="n">
         <v>0.0</v>
@@ -6381,22 +6378,22 @@
         <v>0.0</v>
       </c>
       <c r="N34" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="O34" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q34" t="n">
-        <v>32.0</v>
+        <v>0.0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="S34" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="T34" t="n">
         <v>0.0</v>
@@ -6408,16 +6405,16 @@
         <v>0.0</v>
       </c>
       <c r="W34" t="n">
-        <v>35.0</v>
+        <v>0.0</v>
       </c>
       <c r="X34" t="n">
         <v>1.0</v>
       </c>
       <c r="Y34" t="n">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z34" t="n">
-        <v>6.7</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="35">
@@ -6425,7 +6422,7 @@
         <v>198</v>
       </c>
       <c r="B35" t="n">
-        <v>1002.0</v>
+        <v>1007.0</v>
       </c>
       <c r="C35" t="s">
         <v>241</v>
@@ -6449,7 +6446,7 @@
         <v>327</v>
       </c>
       <c r="J35" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="K35" t="n">
         <v>0.0</v>
@@ -6461,22 +6458,22 @@
         <v>0.0</v>
       </c>
       <c r="N35" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="O35" t="n">
         <v>11.0</v>
       </c>
-      <c r="O35" t="n">
-        <v>9.0</v>
-      </c>
       <c r="P35" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="Q35" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R35" t="n">
         <v>4.0</v>
       </c>
-      <c r="R35" t="n">
-        <v>3.0</v>
-      </c>
       <c r="S35" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="T35" t="n">
         <v>0.0</v>
@@ -6488,16 +6485,16 @@
         <v>0.0</v>
       </c>
       <c r="W35" t="n">
-        <v>16.0</v>
+        <v>19.0</v>
       </c>
       <c r="X35" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="Y35" t="n">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="Z35" t="n">
-        <v>34.2</v>
+        <v>35.7</v>
       </c>
     </row>
     <row r="36">
@@ -6505,7 +6502,7 @@
         <v>199</v>
       </c>
       <c r="B36" t="n">
-        <v>1987.0</v>
+        <v>2001.0</v>
       </c>
       <c r="C36" t="s">
         <v>242</v>
@@ -6526,7 +6523,7 @@
         <v>314</v>
       </c>
       <c r="I36" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J36" t="n">
         <v>0.0</v>
@@ -6585,7 +6582,7 @@
         <v>200</v>
       </c>
       <c r="B37" t="n">
-        <v>321.0</v>
+        <v>322.0</v>
       </c>
       <c r="C37" t="s">
         <v>243</v>
@@ -6606,10 +6603,10 @@
         <v>315</v>
       </c>
       <c r="I37" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J37" t="n">
-        <v>3.9</v>
+        <v>4.9</v>
       </c>
       <c r="K37" t="n">
         <v>0.0</v>
@@ -6621,10 +6618,10 @@
         <v>0.0</v>
       </c>
       <c r="N37" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="O37" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="P37" t="n">
         <v>0.0</v>
@@ -6648,16 +6645,16 @@
         <v>0.0</v>
       </c>
       <c r="W37" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="X37" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="Y37" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="Z37" t="n">
-        <v>57.1</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="38">
@@ -6665,7 +6662,7 @@
         <v>201</v>
       </c>
       <c r="B38" t="n">
-        <v>597.0</v>
+        <v>600.0</v>
       </c>
       <c r="C38" t="s">
         <v>244</v>
@@ -6745,7 +6742,7 @@
         <v>202</v>
       </c>
       <c r="B39" t="n">
-        <v>621.0</v>
+        <v>624.0</v>
       </c>
       <c r="C39" t="s">
         <v>245</v>
@@ -6825,7 +6822,7 @@
         <v>203</v>
       </c>
       <c r="B40" t="n">
-        <v>805.0</v>
+        <v>810.0</v>
       </c>
       <c r="C40" t="s">
         <v>246</v>
@@ -6846,7 +6843,7 @@
         <v>318</v>
       </c>
       <c r="I40" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J40" t="n">
         <v>1.3</v>
@@ -6905,7 +6902,7 @@
         <v>204</v>
       </c>
       <c r="B41" t="n">
-        <v>905.0</v>
+        <v>910.0</v>
       </c>
       <c r="C41" t="s">
         <v>247</v>
@@ -6985,7 +6982,7 @@
         <v>205</v>
       </c>
       <c r="B42" t="n">
-        <v>1011.0</v>
+        <v>1016.0</v>
       </c>
       <c r="C42" t="s">
         <v>248</v>
@@ -7065,7 +7062,7 @@
         <v>206</v>
       </c>
       <c r="B43" t="n">
-        <v>1696.0</v>
+        <v>1707.0</v>
       </c>
       <c r="C43" t="s">
         <v>249</v>
@@ -7145,7 +7142,7 @@
         <v>207</v>
       </c>
       <c r="B44" t="n">
-        <v>1820.0</v>
+        <v>1832.0</v>
       </c>
       <c r="C44" t="s">
         <v>250</v>
@@ -7169,7 +7166,7 @@
         <v>326</v>
       </c>
       <c r="J44" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K44" t="n">
         <v>0.0</v>
@@ -7260,298 +7257,298 @@
         <v>147</v>
       </c>
       <c r="J1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K1" t="s">
         <v>337</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>338</v>
-      </c>
-      <c r="L1" t="s">
-        <v>339</v>
       </c>
       <c r="M1" t="s">
         <v>148</v>
       </c>
       <c r="N1" t="s">
+        <v>339</v>
+      </c>
+      <c r="O1" t="s">
         <v>340</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>341</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>342</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>343</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>344</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>345</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>346</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>347</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>348</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>349</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>350</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>351</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>352</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>353</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>354</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>355</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>356</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>357</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>358</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>359</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B2" t="n">
-        <v>1002.0</v>
+        <v>503.0</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D2" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="E2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G2" t="s">
         <v>279</v>
       </c>
       <c r="H2" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="I2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J2" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="K2" t="n">
         <v>10.0</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>886.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>9.8</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P2" t="n">
         <v>7.0</v>
       </c>
-      <c r="L2" t="n">
-        <v>590.0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>5.0</v>
       </c>
-      <c r="Q2" t="n">
-        <v>3.0</v>
-      </c>
       <c r="R2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U2" t="n">
         <v>0.0</v>
       </c>
       <c r="V2" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="W2" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="X2" t="n">
-        <v>2.0</v>
+        <v>3.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.7</v>
+        <v>6.2</v>
       </c>
       <c r="Z2" t="n">
-        <v>4.0</v>
+        <v>35.0</v>
       </c>
       <c r="AA2" t="n">
-        <v>12.0</v>
+        <v>39.0</v>
       </c>
       <c r="AB2" t="n">
-        <v>27.0</v>
+        <v>54.0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.61</v>
+        <v>0.51</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.76</v>
+        <v>0.71</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.46</v>
+        <v>0.51</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.61</v>
+        <v>0.71</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.52</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B3" t="n">
-        <v>502.0</v>
+        <v>1007.0</v>
       </c>
       <c r="C3" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="D3" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="E3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G3" t="s">
         <v>279</v>
       </c>
       <c r="H3" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="I3" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J3" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K3" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="L3" t="n">
-        <v>797.0</v>
+        <v>664.0</v>
       </c>
       <c r="M3" t="n">
-        <v>8.9</v>
+        <v>7.4</v>
       </c>
       <c r="N3" t="n">
         <v>4.0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="P3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="Z3" t="n">
         <v>5.0</v>
       </c>
-      <c r="Q3" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="X3" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="Z3" t="n">
+      <c r="AA3" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AB3" t="n">
         <v>31.0</v>
       </c>
-      <c r="AA3" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>52.0</v>
-      </c>
       <c r="AC3" t="n">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.11</v>
+        <v>0.27</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.56</v>
+        <v>0.81</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.56</v>
+        <v>0.68</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.26</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B4" t="n">
-        <v>2003.0</v>
+        <v>2017.0</v>
       </c>
       <c r="C4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D4" t="s">
         <v>266</v>
@@ -7566,22 +7563,22 @@
         <v>279</v>
       </c>
       <c r="H4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J4" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K4" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="L4" t="n">
-        <v>822.0</v>
+        <v>894.0</v>
       </c>
       <c r="M4" t="n">
-        <v>9.1</v>
+        <v>9.9</v>
       </c>
       <c r="N4" t="n">
         <v>4.0</v>
@@ -7620,7 +7617,7 @@
         <v>3.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="AA4" t="n">
         <v>7.0</v>
@@ -7629,63 +7626,63 @@
         <v>24.0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="B5" t="n">
-        <v>46.0</v>
+        <v>1974.0</v>
       </c>
       <c r="C5" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="D5" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G5" t="s">
         <v>279</v>
       </c>
       <c r="H5" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="I5" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="J5" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K5" t="n">
         <v>10.0</v>
       </c>
       <c r="L5" t="n">
-        <v>833.0</v>
+        <v>796.0</v>
       </c>
       <c r="M5" t="n">
-        <v>9.3</v>
+        <v>8.8</v>
       </c>
       <c r="N5" t="n">
         <v>3.0</v>
@@ -7706,66 +7703,66 @@
         <v>0.0</v>
       </c>
       <c r="T5" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="U5" t="n">
         <v>0.0</v>
       </c>
       <c r="V5" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="X5" t="n">
-        <v>1.0</v>
+        <v>0.8</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="Z5" t="n">
-        <v>17.0</v>
+        <v>30.0</v>
       </c>
       <c r="AA5" t="n">
-        <v>32.0</v>
+        <v>59.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>36.0</v>
+        <v>51.0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="B6" t="n">
-        <v>980.0</v>
+        <v>2232.0</v>
       </c>
       <c r="C6" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="D6" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F6" t="s">
         <v>94</v>
@@ -7774,34 +7771,34 @@
         <v>279</v>
       </c>
       <c r="H6" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="I6" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="J6" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="K6" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="L6" t="n">
-        <v>856.0</v>
+        <v>80.0</v>
       </c>
       <c r="M6" t="n">
-        <v>9.5</v>
+        <v>0.9</v>
       </c>
       <c r="N6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P6" t="n">
         <v>3.0</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="R6" t="n">
         <v>0.0</v>
@@ -7810,170 +7807,170 @@
         <v>0.0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="U6" t="n">
         <v>0.0</v>
       </c>
       <c r="V6" t="n">
-        <v>1.0</v>
+        <v>0.7</v>
       </c>
       <c r="W6" t="n">
-        <v>1.0</v>
+        <v>0.7</v>
       </c>
       <c r="X6" t="n">
-        <v>2.1</v>
+        <v>0.0</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="Z6" t="n">
-        <v>35.0</v>
+        <v>3.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>63.0</v>
+        <v>5.0</v>
       </c>
       <c r="AB6" t="n">
-        <v>76.0</v>
+        <v>12.0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.21</v>
+        <v>3.38</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.11</v>
+        <v>0.0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.32</v>
+        <v>3.38</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.21</v>
+        <v>3.38</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.32</v>
+        <v>3.38</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.1</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="B7" t="n">
-        <v>1960.0</v>
+        <v>46.0</v>
       </c>
       <c r="C7" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="D7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
         <v>279</v>
       </c>
       <c r="H7" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="I7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="J7" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K7" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="L7" t="n">
-        <v>708.0</v>
+        <v>922.0</v>
       </c>
       <c r="M7" t="n">
-        <v>7.9</v>
+        <v>10.2</v>
       </c>
       <c r="N7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="O7" t="n">
         <v>2.0</v>
       </c>
       <c r="P7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T7" t="n">
         <v>4.0</v>
       </c>
-      <c r="Q7" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.0</v>
-      </c>
       <c r="U7" t="n">
         <v>0.0</v>
       </c>
       <c r="V7" t="n">
-        <v>2.0</v>
+        <v>1.2</v>
       </c>
       <c r="W7" t="n">
-        <v>2.0</v>
+        <v>1.2</v>
       </c>
       <c r="X7" t="n">
-        <v>0.6</v>
+        <v>1.0</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>23.0</v>
+        <v>19.0</v>
       </c>
       <c r="AA7" t="n">
-        <v>49.0</v>
+        <v>33.0</v>
       </c>
       <c r="AB7" t="n">
-        <v>44.0</v>
+        <v>41.0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B8" t="n">
-        <v>2217.0</v>
+        <v>985.0</v>
       </c>
       <c r="C8" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="D8" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E8" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F8" t="s">
         <v>94</v>
@@ -7982,31 +7979,31 @@
         <v>279</v>
       </c>
       <c r="H8" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="I8" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="J8" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="L8" t="n">
-        <v>71.0</v>
+        <v>944.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8</v>
+        <v>10.5</v>
       </c>
       <c r="N8" t="n">
         <v>2.0</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q8" t="n">
         <v>2.0</v>
@@ -8018,60 +8015,60 @@
         <v>0.0</v>
       </c>
       <c r="T8" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="U8" t="n">
         <v>0.0</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="W8" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0</v>
+        <v>3.2</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.3</v>
+        <v>4.3</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.0</v>
+        <v>40.0</v>
       </c>
       <c r="AA8" t="n">
-        <v>5.0</v>
+        <v>73.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>10.0</v>
+        <v>87.0</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.54</v>
+        <v>0.19</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.0</v>
+        <v>0.19</v>
       </c>
       <c r="AE8" t="n">
-        <v>2.54</v>
+        <v>0.38</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.54</v>
+        <v>0.19</v>
       </c>
       <c r="AG8" t="n">
-        <v>2.54</v>
+        <v>0.38</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.32</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B9" t="n">
-        <v>1459.0</v>
+        <v>1469.0</v>
       </c>
       <c r="C9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D9" t="s">
         <v>253</v>
@@ -8086,22 +8083,22 @@
         <v>279</v>
       </c>
       <c r="H9" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I9" t="s">
         <v>324</v>
       </c>
       <c r="J9" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="K9" t="n">
         <v>3.0</v>
       </c>
       <c r="L9" t="n">
-        <v>310.0</v>
+        <v>326.0</v>
       </c>
       <c r="M9" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N9" t="n">
         <v>1.0</v>
@@ -8146,42 +8143,42 @@
         <v>8.0</v>
       </c>
       <c r="AB9" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B10" t="n">
-        <v>1503.0</v>
+        <v>1513.0</v>
       </c>
       <c r="C10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D10" t="s">
         <v>258</v>
       </c>
       <c r="E10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F10" t="s">
         <v>94</v>
@@ -8190,22 +8187,22 @@
         <v>279</v>
       </c>
       <c r="H10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I10" t="s">
         <v>325</v>
       </c>
       <c r="J10" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="K10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L10" t="n">
-        <v>205.0</v>
+        <v>286.0</v>
       </c>
       <c r="M10" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="N10" t="n">
         <v>1.0</v>
@@ -8232,43 +8229,43 @@
         <v>0.0</v>
       </c>
       <c r="V10" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="W10" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="X10" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>24.0</v>
+        <v>31.0</v>
       </c>
       <c r="AA10" t="n">
-        <v>11.0</v>
+        <v>19.0</v>
       </c>
       <c r="AB10" t="n">
-        <v>31.0</v>
+        <v>43.0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.44</v>
+        <v>0.31</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.44</v>
+        <v>0.31</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.44</v>
+        <v>0.31</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="11">
@@ -8276,7 +8273,7 @@
         <v>173</v>
       </c>
       <c r="B11" t="n">
-        <v>1656.0</v>
+        <v>1667.0</v>
       </c>
       <c r="C11" t="s">
         <v>216</v>
@@ -8300,16 +8297,16 @@
         <v>323</v>
       </c>
       <c r="J11" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K11" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="L11" t="n">
-        <v>752.0</v>
+        <v>834.0</v>
       </c>
       <c r="M11" t="n">
-        <v>8.4</v>
+        <v>9.3</v>
       </c>
       <c r="N11" t="n">
         <v>1.0</v>
@@ -8336,43 +8333,43 @@
         <v>0.0</v>
       </c>
       <c r="V11" t="n">
-        <v>2.0</v>
+        <v>2.5</v>
       </c>
       <c r="W11" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="X11" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="AA11" t="n">
-        <v>46.0</v>
+        <v>52.0</v>
       </c>
       <c r="AB11" t="n">
-        <v>30.0</v>
+        <v>35.0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AD11" t="n">
         <v>0.0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="12">
@@ -8380,7 +8377,7 @@
         <v>176</v>
       </c>
       <c r="B12" t="n">
-        <v>2095.0</v>
+        <v>2110.0</v>
       </c>
       <c r="C12" t="s">
         <v>219</v>
@@ -8404,13 +8401,13 @@
         <v>323</v>
       </c>
       <c r="J12" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K12" t="n">
         <v>9.0</v>
       </c>
       <c r="L12" t="n">
-        <v>716.0</v>
+        <v>718.0</v>
       </c>
       <c r="M12" t="n">
         <v>8.0</v>
@@ -8458,7 +8455,7 @@
         <v>26.0</v>
       </c>
       <c r="AB12" t="n">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="AC12" t="n">
         <v>0.13</v>
@@ -8481,16 +8478,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B13" t="n">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="C13" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E13" t="s">
         <v>277</v>
@@ -8502,22 +8499,22 @@
         <v>279</v>
       </c>
       <c r="H13" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="I13" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J13" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="K13" t="n">
         <v>6.0</v>
       </c>
       <c r="L13" t="n">
-        <v>431.0</v>
+        <v>476.0</v>
       </c>
       <c r="M13" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="N13" t="n">
         <v>1.0</v>
@@ -8538,7 +8535,7 @@
         <v>0.0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="U13" t="n">
         <v>0.0</v>
@@ -8562,22 +8559,22 @@
         <v>6.0</v>
       </c>
       <c r="AB13" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AH13" t="n">
         <v>0.06</v>
@@ -8588,7 +8585,7 @@
         <v>167</v>
       </c>
       <c r="B14" t="n">
-        <v>804.0</v>
+        <v>809.0</v>
       </c>
       <c r="C14" t="s">
         <v>210</v>
@@ -8612,16 +8609,16 @@
         <v>324</v>
       </c>
       <c r="J14" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K14" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="L14" t="n">
-        <v>837.0</v>
+        <v>927.0</v>
       </c>
       <c r="M14" t="n">
-        <v>9.3</v>
+        <v>10.3</v>
       </c>
       <c r="N14" t="n">
         <v>1.0</v>
@@ -8648,40 +8645,40 @@
         <v>0.0</v>
       </c>
       <c r="V14" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="W14" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="X14" t="n">
         <v>0.2</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="AA14" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="AB14" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AD14" t="n">
         <v>0.0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AH14" t="n">
         <v>0.04</v>
@@ -8689,16 +8686,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B15" t="n">
-        <v>1178.0</v>
+        <v>1184.0</v>
       </c>
       <c r="C15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D15" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E15" t="s">
         <v>273</v>
@@ -8710,31 +8707,31 @@
         <v>279</v>
       </c>
       <c r="H15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I15" t="s">
         <v>326</v>
       </c>
       <c r="J15" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="K15" t="n">
         <v>10.0</v>
       </c>
-      <c r="K15" t="n">
-        <v>9.0</v>
-      </c>
       <c r="L15" t="n">
-        <v>792.0</v>
+        <v>882.0</v>
       </c>
       <c r="M15" t="n">
-        <v>8.8</v>
+        <v>9.8</v>
       </c>
       <c r="N15" t="n">
         <v>1.0</v>
       </c>
       <c r="O15" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q15" t="n">
         <v>1.0</v>
@@ -8761,87 +8758,87 @@
         <v>0.3</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="AA15" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="AB15" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="AC15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AH15" t="n">
         <v>0.11</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0.12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B16" t="n">
-        <v>95.0</v>
+        <v>1888.0</v>
       </c>
       <c r="C16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D16" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="E16" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F16" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G16" t="s">
         <v>279</v>
       </c>
       <c r="H16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I16" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="J16" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="K16" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="L16" t="n">
-        <v>513.0</v>
+        <v>181.0</v>
       </c>
       <c r="M16" t="n">
-        <v>5.7</v>
+        <v>2.0</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O16" t="n">
         <v>0.0</v>
       </c>
       <c r="P16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R16" t="n">
         <v>0.0</v>
@@ -8850,63 +8847,63 @@
         <v>0.0</v>
       </c>
       <c r="T16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V16" t="n">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="W16" t="n">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="X16" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="Z16" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="AA16" t="n">
-        <v>21.0</v>
+        <v>12.0</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="AD16" t="n">
         <v>0.0</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.04</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="B17" t="n">
-        <v>205.0</v>
+        <v>95.0</v>
       </c>
       <c r="C17" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="D17" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="E17" t="s">
         <v>274</v>
@@ -8918,22 +8915,22 @@
         <v>279</v>
       </c>
       <c r="H17" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="I17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J17" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="K17" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="L17" t="n">
-        <v>900.0</v>
+        <v>603.0</v>
       </c>
       <c r="M17" t="n">
-        <v>10.0</v>
+        <v>6.7</v>
       </c>
       <c r="N17" t="n">
         <v>0.0</v>
@@ -8954,10 +8951,10 @@
         <v>0.0</v>
       </c>
       <c r="T17" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V17" t="n">
         <v>0.2</v>
@@ -8966,19 +8963,19 @@
         <v>0.2</v>
       </c>
       <c r="X17" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="AA17" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="AB17" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC17" t="n">
         <v>0.0</v>
@@ -8996,24 +8993,24 @@
         <v>0.0</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="B18" t="n">
-        <v>246.0</v>
+        <v>206.0</v>
       </c>
       <c r="C18" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="D18" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="E18" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F18" t="s">
         <v>94</v>
@@ -9022,22 +9019,22 @@
         <v>279</v>
       </c>
       <c r="H18" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="I18" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="J18" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="K18" t="n">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="L18" t="n">
-        <v>434.0</v>
+        <v>990.0</v>
       </c>
       <c r="M18" t="n">
-        <v>4.8</v>
+        <v>11.0</v>
       </c>
       <c r="N18" t="n">
         <v>0.0</v>
@@ -9058,32 +9055,32 @@
         <v>0.0</v>
       </c>
       <c r="T18" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="U18" t="n">
         <v>0.0</v>
       </c>
       <c r="V18" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="W18" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="X18" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="Y18" t="n">
         <v>0.2</v>
       </c>
       <c r="Z18" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AB18" t="n">
         <v>4.0</v>
       </c>
-      <c r="AA18" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0.0</v>
-      </c>
       <c r="AC18" t="n">
         <v>0.0</v>
       </c>
@@ -9100,21 +9097,21 @@
         <v>0.0</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="B19" t="n">
-        <v>341.0</v>
+        <v>247.0</v>
       </c>
       <c r="C19" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="D19" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="E19" t="s">
         <v>273</v>
@@ -9126,22 +9123,22 @@
         <v>279</v>
       </c>
       <c r="H19" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="I19" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="J19" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="L19" t="n">
-        <v>117.0</v>
+        <v>524.0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.3</v>
+        <v>5.8</v>
       </c>
       <c r="N19" t="n">
         <v>0.0</v>
@@ -9162,7 +9159,7 @@
         <v>0.0</v>
       </c>
       <c r="T19" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="U19" t="n">
         <v>0.0</v>
@@ -9174,19 +9171,19 @@
         <v>0.0</v>
       </c>
       <c r="X19" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="Z19" t="n">
         <v>4.0</v>
       </c>
       <c r="AA19" t="n">
-        <v>16.0</v>
+        <v>27.0</v>
       </c>
       <c r="AB19" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC19" t="n">
         <v>0.0</v>
@@ -9209,19 +9206,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="B20" t="n">
-        <v>396.0</v>
+        <v>342.0</v>
       </c>
       <c r="C20" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="D20" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="E20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F20" t="s">
         <v>94</v>
@@ -9230,22 +9227,22 @@
         <v>279</v>
       </c>
       <c r="H20" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="I20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J20" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="K20" t="n">
         <v>0.0</v>
       </c>
       <c r="L20" t="n">
-        <v>32.0</v>
+        <v>125.0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="N20" t="n">
         <v>0.0</v>
@@ -9266,31 +9263,31 @@
         <v>0.0</v>
       </c>
       <c r="T20" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="U20" t="n">
         <v>0.0</v>
       </c>
       <c r="V20" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="X20" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
       <c r="AB20" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="AC20" t="n">
         <v>0.0</v>
@@ -9308,7 +9305,7 @@
         <v>0.0</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.15</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
@@ -9316,13 +9313,13 @@
         <v>196</v>
       </c>
       <c r="B21" t="n">
-        <v>501.0</v>
+        <v>397.0</v>
       </c>
       <c r="C21" t="s">
         <v>239</v>
       </c>
       <c r="D21" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="E21" t="s">
         <v>274</v>
@@ -9337,19 +9334,19 @@
         <v>311</v>
       </c>
       <c r="I21" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="J21" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K21" t="n">
         <v>0.0</v>
       </c>
       <c r="L21" t="n">
-        <v>1.0</v>
+        <v>32.0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="N21" t="n">
         <v>0.0</v>
@@ -9376,16 +9373,16 @@
         <v>0.0</v>
       </c>
       <c r="V21" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="W21" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="X21" t="n">
         <v>0.0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="Z21" t="n">
         <v>0.0</v>
@@ -9394,7 +9391,7 @@
         <v>1.0</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="AC21" t="n">
         <v>0.0</v>
@@ -9412,21 +9409,21 @@
         <v>0.0</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="B22" t="n">
-        <v>583.0</v>
+        <v>502.0</v>
       </c>
       <c r="C22" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="D22" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E22" t="s">
         <v>274</v>
@@ -9438,22 +9435,22 @@
         <v>279</v>
       </c>
       <c r="H22" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="I22" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="J22" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="K22" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="L22" t="n">
-        <v>393.0</v>
+        <v>1.0</v>
       </c>
       <c r="M22" t="n">
-        <v>4.4</v>
+        <v>0.0</v>
       </c>
       <c r="N22" t="n">
         <v>0.0</v>
@@ -9474,31 +9471,31 @@
         <v>0.0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U22" t="n">
         <v>0.0</v>
       </c>
       <c r="V22" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="W22" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="X22" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="Z22" t="n">
         <v>0.0</v>
       </c>
       <c r="AA22" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC22" t="n">
         <v>0.0</v>
@@ -9516,24 +9513,24 @@
         <v>0.0</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.06</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B23" t="n">
-        <v>1180.0</v>
+        <v>586.0</v>
       </c>
       <c r="C23" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="D23" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="E23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F23" t="s">
         <v>94</v>
@@ -9542,31 +9539,31 @@
         <v>279</v>
       </c>
       <c r="H23" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="I23" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J23" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="K23" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="L23" t="n">
-        <v>900.0</v>
+        <v>393.0</v>
       </c>
       <c r="M23" t="n">
-        <v>10.0</v>
+        <v>4.4</v>
       </c>
       <c r="N23" t="n">
         <v>0.0</v>
       </c>
       <c r="O23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q23" t="n">
         <v>0.0</v>
@@ -9578,66 +9575,66 @@
         <v>0.0</v>
       </c>
       <c r="T23" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="U23" t="n">
         <v>0.0</v>
       </c>
       <c r="V23" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="W23" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="X23" t="n">
         <v>0.1</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="Z23" t="n">
         <v>0.0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC23" t="n">
         <v>0.0</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="AF23" t="n">
         <v>0.0</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.0</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B24" t="n">
-        <v>1230.0</v>
+        <v>1186.0</v>
       </c>
       <c r="C24" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="D24" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E24" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F24" t="s">
         <v>94</v>
@@ -9646,31 +9643,31 @@
         <v>279</v>
       </c>
       <c r="H24" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="I24" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="J24" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="K24" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="L24" t="n">
-        <v>547.0</v>
+        <v>990.0</v>
       </c>
       <c r="M24" t="n">
-        <v>6.1</v>
+        <v>11.0</v>
       </c>
       <c r="N24" t="n">
         <v>0.0</v>
       </c>
       <c r="O24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q24" t="n">
         <v>0.0</v>
@@ -9682,7 +9679,7 @@
         <v>0.0</v>
       </c>
       <c r="T24" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="U24" t="n">
         <v>0.0</v>
@@ -9694,34 +9691,34 @@
         <v>0.0</v>
       </c>
       <c r="X24" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="Z24" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA24" t="n">
-        <v>28.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC24" t="n">
         <v>0.0</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.0</v>
+        <v>0.09</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.0</v>
+        <v>0.09</v>
       </c>
       <c r="AF24" t="n">
         <v>0.0</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.0</v>
+        <v>0.09</v>
       </c>
       <c r="AH24" t="n">
         <v>0.0</v>
@@ -9729,16 +9726,16 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B25" t="n">
-        <v>1743.0</v>
+        <v>1238.0</v>
       </c>
       <c r="C25" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D25" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E25" t="s">
         <v>273</v>
@@ -9750,22 +9747,22 @@
         <v>279</v>
       </c>
       <c r="H25" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="I25" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="J25" t="n">
         <v>7.0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="L25" t="n">
-        <v>59.0</v>
+        <v>547.0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.7</v>
+        <v>6.1</v>
       </c>
       <c r="N25" t="n">
         <v>0.0</v>
@@ -9786,7 +9783,7 @@
         <v>0.0</v>
       </c>
       <c r="T25" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="U25" t="n">
         <v>0.0</v>
@@ -9798,19 +9795,19 @@
         <v>0.0</v>
       </c>
       <c r="X25" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="AA25" t="n">
-        <v>2.0</v>
+        <v>28.0</v>
       </c>
       <c r="AB25" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC25" t="n">
         <v>0.0</v>
@@ -9828,24 +9825,24 @@
         <v>0.0</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.02</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B26" t="n">
-        <v>1772.0</v>
+        <v>1754.0</v>
       </c>
       <c r="C26" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D26" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="E26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F26" t="s">
         <v>94</v>
@@ -9854,82 +9851,82 @@
         <v>279</v>
       </c>
       <c r="H26" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="I26" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J26" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="K26" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="L26" t="n">
-        <v>900.0</v>
+        <v>61.0</v>
       </c>
       <c r="M26" t="n">
-        <v>10.0</v>
+        <v>0.7</v>
       </c>
       <c r="N26" t="n">
         <v>0.0</v>
       </c>
       <c r="O26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA26" t="n">
         <v>3.0</v>
       </c>
-      <c r="P26" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>32.0</v>
-      </c>
       <c r="AB26" t="n">
-        <v>70.0</v>
+        <v>7.0</v>
       </c>
       <c r="AC26" t="n">
         <v>0.0</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="AF26" t="n">
         <v>0.0</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="AH26" t="n">
         <v>0.02</v>
@@ -9937,19 +9934,19 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B27" t="n">
-        <v>1987.0</v>
+        <v>1783.0</v>
       </c>
       <c r="C27" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D27" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="E27" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F27" t="s">
         <v>94</v>
@@ -9958,31 +9955,31 @@
         <v>279</v>
       </c>
       <c r="H27" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="I27" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="J27" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="L27" t="n">
-        <v>1.0</v>
+        <v>990.0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="N27" t="n">
         <v>0.0</v>
       </c>
       <c r="O27" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="P27" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q27" t="n">
         <v>0.0</v>
@@ -9994,66 +9991,66 @@
         <v>0.0</v>
       </c>
       <c r="T27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U27" t="n">
         <v>0.0</v>
       </c>
       <c r="V27" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="W27" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="X27" t="n">
-        <v>0.0</v>
+        <v>0.9</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.0</v>
+        <v>1.1</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.0</v>
+        <v>77.0</v>
       </c>
       <c r="AC27" t="n">
         <v>0.0</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.0</v>
+        <v>0.27</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.0</v>
+        <v>0.27</v>
       </c>
       <c r="AF27" t="n">
         <v>0.0</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.0</v>
+        <v>0.27</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="B28" t="n">
-        <v>2061.0</v>
+        <v>2001.0</v>
       </c>
       <c r="C28" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="D28" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E28" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F28" t="s">
         <v>94</v>
@@ -10062,22 +10059,22 @@
         <v>279</v>
       </c>
       <c r="H28" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="I28" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="J28" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="K28" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="L28" t="n">
-        <v>868.0</v>
+        <v>1.0</v>
       </c>
       <c r="M28" t="n">
-        <v>9.6</v>
+        <v>0.0</v>
       </c>
       <c r="N28" t="n">
         <v>0.0</v>
@@ -10098,31 +10095,31 @@
         <v>0.0</v>
       </c>
       <c r="T28" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="U28" t="n">
         <v>0.0</v>
       </c>
       <c r="V28" t="n">
-        <v>0.9</v>
+        <v>0.0</v>
       </c>
       <c r="W28" t="n">
-        <v>0.9</v>
+        <v>0.0</v>
       </c>
       <c r="X28" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.2</v>
+        <v>0.0</v>
       </c>
       <c r="Z28" t="n">
-        <v>26.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA28" t="n">
-        <v>29.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB28" t="n">
-        <v>28.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC28" t="n">
         <v>0.0</v>
@@ -10140,48 +10137,48 @@
         <v>0.0</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.09</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B29" t="n">
-        <v>97.0</v>
+        <v>2075.0</v>
       </c>
       <c r="C29" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D29" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E29" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F29" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G29" t="s">
         <v>279</v>
       </c>
       <c r="H29" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="I29" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="J29" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="K29" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="L29" t="n">
-        <v>363.0</v>
+        <v>958.0</v>
       </c>
       <c r="M29" t="n">
-        <v>4.0</v>
+        <v>10.6</v>
       </c>
       <c r="N29" t="n">
         <v>0.0</v>
@@ -10208,25 +10205,25 @@
         <v>0.0</v>
       </c>
       <c r="V29" t="n">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="W29" t="n">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="X29" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="AA29" t="n">
-        <v>10.0</v>
+        <v>31.0</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="AC29" t="n">
         <v>0.0</v>
@@ -10244,24 +10241,24 @@
         <v>0.0</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="B30" t="n">
-        <v>321.0</v>
+        <v>97.0</v>
       </c>
       <c r="C30" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="D30" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="E30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F30" t="s">
         <v>97</v>
@@ -10270,23 +10267,23 @@
         <v>279</v>
       </c>
       <c r="H30" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="I30" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="J30" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="K30" t="n">
         <v>5.0</v>
       </c>
-      <c r="K30" t="n">
+      <c r="L30" t="n">
+        <v>363.0</v>
+      </c>
+      <c r="M30" t="n">
         <v>4.0</v>
       </c>
-      <c r="L30" t="n">
-        <v>355.0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>3.9</v>
-      </c>
       <c r="N30" t="n">
         <v>0.0</v>
       </c>
@@ -10306,19 +10303,19 @@
         <v>0.0</v>
       </c>
       <c r="T30" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="U30" t="n">
         <v>0.0</v>
       </c>
       <c r="V30" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="W30" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="X30" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="Y30" t="n">
         <v>0.2</v>
@@ -10327,7 +10324,7 @@
         <v>0.0</v>
       </c>
       <c r="AA30" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="AB30" t="n">
         <v>0.0</v>
@@ -10348,21 +10345,21 @@
         <v>0.0</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="B31" t="n">
-        <v>535.0</v>
+        <v>322.0</v>
       </c>
       <c r="C31" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="D31" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="E31" t="s">
         <v>274</v>
@@ -10374,67 +10371,67 @@
         <v>279</v>
       </c>
       <c r="H31" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="I31" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="J31" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="K31" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>445.0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA31" t="n">
         <v>7.0</v>
       </c>
-      <c r="L31" t="n">
-        <v>661.0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>15.0</v>
-      </c>
       <c r="AB31" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC31" t="n">
         <v>0.0</v>
@@ -10452,21 +10449,21 @@
         <v>0.0</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="B32" t="n">
-        <v>597.0</v>
+        <v>537.0</v>
       </c>
       <c r="C32" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="D32" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="E32" t="s">
         <v>274</v>
@@ -10478,22 +10475,22 @@
         <v>279</v>
       </c>
       <c r="H32" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="I32" t="s">
-        <v>328</v>
+        <v>193</v>
       </c>
       <c r="J32" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="K32" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="L32" t="n">
-        <v>210.0</v>
+        <v>751.0</v>
       </c>
       <c r="M32" t="n">
-        <v>2.3</v>
+        <v>8.3</v>
       </c>
       <c r="N32" t="n">
         <v>0.0</v>
@@ -10514,31 +10511,31 @@
         <v>0.0</v>
       </c>
       <c r="T32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U32" t="n">
         <v>0.0</v>
       </c>
       <c r="V32" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="W32" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="X32" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="AA32" t="n">
-        <v>6.0</v>
+        <v>16.0</v>
       </c>
       <c r="AB32" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="AC32" t="n">
         <v>0.0</v>
@@ -10556,24 +10553,24 @@
         <v>0.0</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B33" t="n">
-        <v>621.0</v>
+        <v>600.0</v>
       </c>
       <c r="C33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D33" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="E33" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F33" t="s">
         <v>97</v>
@@ -10582,31 +10579,31 @@
         <v>279</v>
       </c>
       <c r="H33" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I33" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="J33" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="K33" t="n">
         <v>2.0</v>
       </c>
       <c r="L33" t="n">
-        <v>266.0</v>
+        <v>211.0</v>
       </c>
       <c r="M33" t="n">
-        <v>3.0</v>
+        <v>2.3</v>
       </c>
       <c r="N33" t="n">
         <v>0.0</v>
       </c>
       <c r="O33" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q33" t="n">
         <v>0.0</v>
@@ -10624,60 +10621,60 @@
         <v>0.0</v>
       </c>
       <c r="V33" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="W33" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="X33" t="n">
         <v>0.1</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="Z33" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA33" t="n">
-        <v>22.0</v>
+        <v>6.0</v>
       </c>
       <c r="AB33" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="AC33" t="n">
         <v>0.0</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.34</v>
+        <v>0.0</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.34</v>
+        <v>0.0</v>
       </c>
       <c r="AF33" t="n">
         <v>0.0</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.34</v>
+        <v>0.0</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="B34" t="n">
-        <v>726.0</v>
+        <v>624.0</v>
       </c>
       <c r="C34" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="D34" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E34" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F34" t="s">
         <v>97</v>
@@ -10686,31 +10683,31 @@
         <v>279</v>
       </c>
       <c r="H34" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="I34" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="J34" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K34" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L34" t="n">
-        <v>179.0</v>
+        <v>266.0</v>
       </c>
       <c r="M34" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="N34" t="n">
         <v>0.0</v>
       </c>
       <c r="O34" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P34" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q34" t="n">
         <v>0.0</v>
@@ -10722,66 +10719,66 @@
         <v>0.0</v>
       </c>
       <c r="T34" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="U34" t="n">
         <v>0.0</v>
       </c>
       <c r="V34" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="X34" t="n">
         <v>0.1</v>
       </c>
-      <c r="W34" t="n">
+      <c r="Y34" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AH34" t="n">
         <v>0.1</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>0.05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="B35" t="n">
-        <v>805.0</v>
+        <v>730.0</v>
       </c>
       <c r="C35" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="D35" t="s">
         <v>254</v>
       </c>
       <c r="E35" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F35" t="s">
         <v>97</v>
@@ -10790,22 +10787,22 @@
         <v>279</v>
       </c>
       <c r="H35" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="I35" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="J35" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="K35" t="n">
         <v>1.0</v>
       </c>
       <c r="L35" t="n">
-        <v>118.0</v>
+        <v>179.0</v>
       </c>
       <c r="M35" t="n">
-        <v>1.3</v>
+        <v>2.0</v>
       </c>
       <c r="N35" t="n">
         <v>0.0</v>
@@ -10826,7 +10823,7 @@
         <v>0.0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="U35" t="n">
         <v>0.0</v>
@@ -10844,13 +10841,13 @@
         <v>0.1</v>
       </c>
       <c r="Z35" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="AA35" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="AB35" t="n">
-        <v>12.0</v>
+        <v>21.0</v>
       </c>
       <c r="AC35" t="n">
         <v>0.0</v>
@@ -10873,19 +10870,19 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="B36" t="n">
-        <v>806.0</v>
+        <v>810.0</v>
       </c>
       <c r="C36" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="D36" t="s">
         <v>254</v>
       </c>
       <c r="E36" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F36" t="s">
         <v>97</v>
@@ -10894,31 +10891,31 @@
         <v>279</v>
       </c>
       <c r="H36" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="I36" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="J36" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="K36" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="L36" t="n">
-        <v>647.0</v>
+        <v>119.0</v>
       </c>
       <c r="M36" t="n">
-        <v>7.2</v>
+        <v>1.3</v>
       </c>
       <c r="N36" t="n">
         <v>0.0</v>
       </c>
       <c r="O36" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P36" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q36" t="n">
         <v>0.0</v>
@@ -10930,66 +10927,66 @@
         <v>0.0</v>
       </c>
       <c r="T36" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="U36" t="n">
         <v>0.0</v>
       </c>
       <c r="V36" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="W36" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="X36" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Z36" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="AA36" t="n">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
       <c r="AB36" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="AC36" t="n">
         <v>0.0</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.14</v>
+        <v>0.0</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.14</v>
+        <v>0.0</v>
       </c>
       <c r="AF36" t="n">
         <v>0.0</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.14</v>
+        <v>0.0</v>
       </c>
       <c r="AH36" t="n">
-        <v>0.0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="B37" t="n">
-        <v>849.0</v>
+        <v>811.0</v>
       </c>
       <c r="C37" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="D37" t="s">
         <v>254</v>
       </c>
       <c r="E37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F37" t="s">
         <v>97</v>
@@ -10998,22 +10995,22 @@
         <v>279</v>
       </c>
       <c r="H37" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="I37" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J37" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="L37" t="n">
-        <v>111.0</v>
+        <v>737.0</v>
       </c>
       <c r="M37" t="n">
-        <v>1.2</v>
+        <v>8.2</v>
       </c>
       <c r="N37" t="n">
         <v>0.0</v>
@@ -11034,63 +11031,63 @@
         <v>0.0</v>
       </c>
       <c r="T37" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="U37" t="n">
         <v>0.0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="Z37" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AB37" t="n">
         <v>3.0</v>
       </c>
-      <c r="AA37" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>12.0</v>
-      </c>
       <c r="AC37" t="n">
         <v>0.0</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.81</v>
+        <v>0.12</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.81</v>
+        <v>0.12</v>
       </c>
       <c r="AF37" t="n">
         <v>0.0</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.81</v>
+        <v>0.12</v>
       </c>
       <c r="AH37" t="n">
-        <v>0.09</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="B38" t="n">
-        <v>905.0</v>
+        <v>854.0</v>
       </c>
       <c r="C38" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="D38" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="E38" t="s">
         <v>276</v>
@@ -11102,31 +11099,31 @@
         <v>279</v>
       </c>
       <c r="H38" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="I38" t="s">
         <v>323</v>
       </c>
       <c r="J38" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="K38" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="L38" t="n">
-        <v>256.0</v>
+        <v>129.0</v>
       </c>
       <c r="M38" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="N38" t="n">
         <v>0.0</v>
       </c>
       <c r="O38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q38" t="n">
         <v>0.0</v>
@@ -11138,66 +11135,66 @@
         <v>0.0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U38" t="n">
         <v>0.0</v>
       </c>
       <c r="V38" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="W38" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="X38" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="Z38" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA38" t="n">
         <v>5.0</v>
       </c>
-      <c r="AA38" t="n">
-        <v>3.0</v>
-      </c>
       <c r="AB38" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="AC38" t="n">
         <v>0.0</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.0</v>
+        <v>0.7</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.0</v>
+        <v>0.7</v>
       </c>
       <c r="AF38" t="n">
         <v>0.0</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.0</v>
+        <v>0.7</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.0</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B39" t="n">
-        <v>1011.0</v>
+        <v>910.0</v>
       </c>
       <c r="C39" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D39" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="E39" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F39" t="s">
         <v>97</v>
@@ -11206,67 +11203,67 @@
         <v>279</v>
       </c>
       <c r="H39" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I39" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="J39" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z39" t="n">
         <v>5.0</v>
       </c>
-      <c r="K39" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>450.0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>0.0</v>
-      </c>
       <c r="AA39" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="AC39" t="n">
         <v>0.0</v>
@@ -11289,19 +11286,19 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="B40" t="n">
-        <v>1442.0</v>
+        <v>1016.0</v>
       </c>
       <c r="C40" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="D40" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E40" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F40" t="s">
         <v>97</v>
@@ -11310,10 +11307,10 @@
         <v>279</v>
       </c>
       <c r="H40" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="I40" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="J40" t="n">
         <v>5.0</v>
@@ -11322,10 +11319,10 @@
         <v>5.0</v>
       </c>
       <c r="L40" t="n">
-        <v>441.0</v>
+        <v>450.0</v>
       </c>
       <c r="M40" t="n">
-        <v>4.9</v>
+        <v>5.0</v>
       </c>
       <c r="N40" t="n">
         <v>0.0</v>
@@ -11346,28 +11343,28 @@
         <v>0.0</v>
       </c>
       <c r="T40" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="U40" t="n">
         <v>0.0</v>
       </c>
       <c r="V40" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="W40" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="Z40" t="n">
         <v>0.0</v>
       </c>
       <c r="AA40" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB40" t="n">
         <v>0.0</v>
@@ -11388,24 +11385,24 @@
         <v>0.0</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.07</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="B41" t="n">
-        <v>1696.0</v>
+        <v>1452.0</v>
       </c>
       <c r="C41" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="D41" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="E41" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F41" t="s">
         <v>97</v>
@@ -11414,22 +11411,22 @@
         <v>279</v>
       </c>
       <c r="H41" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="I41" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="J41" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="L41" t="n">
-        <v>48.0</v>
+        <v>441.0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.5</v>
+        <v>4.9</v>
       </c>
       <c r="N41" t="n">
         <v>0.0</v>
@@ -11450,31 +11447,31 @@
         <v>0.0</v>
       </c>
       <c r="T41" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="U41" t="n">
         <v>0.0</v>
       </c>
       <c r="V41" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="W41" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="X41" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="Z41" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA41" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="AB41" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC41" t="n">
         <v>0.0</v>
@@ -11497,19 +11494,19 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B42" t="n">
-        <v>1820.0</v>
+        <v>1707.0</v>
       </c>
       <c r="C42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D42" t="s">
         <v>254</v>
       </c>
       <c r="E42" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F42" t="s">
         <v>97</v>
@@ -11518,22 +11515,22 @@
         <v>279</v>
       </c>
       <c r="H42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I42" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="J42" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="K42" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="L42" t="n">
-        <v>450.0</v>
+        <v>48.0</v>
       </c>
       <c r="M42" t="n">
-        <v>5.0</v>
+        <v>0.5</v>
       </c>
       <c r="N42" t="n">
         <v>0.0</v>
@@ -11566,19 +11563,19 @@
         <v>0.0</v>
       </c>
       <c r="X42" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="AC42" t="n">
         <v>0.0</v>
@@ -11596,24 +11593,24 @@
         <v>0.0</v>
       </c>
       <c r="AH42" t="n">
-        <v>0.0</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="B43" t="n">
-        <v>1876.0</v>
+        <v>1832.0</v>
       </c>
       <c r="C43" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="D43" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E43" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F43" t="s">
         <v>97</v>
@@ -11622,22 +11619,22 @@
         <v>279</v>
       </c>
       <c r="H43" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="I43" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J43" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="K43" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="L43" t="n">
-        <v>136.0</v>
+        <v>540.0</v>
       </c>
       <c r="M43" t="n">
-        <v>1.5</v>
+        <v>6.0</v>
       </c>
       <c r="N43" t="n">
         <v>0.0</v>
@@ -11658,31 +11655,31 @@
         <v>0.0</v>
       </c>
       <c r="T43" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U43" t="n">
         <v>0.0</v>
       </c>
       <c r="V43" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="W43" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="Z43" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA43" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB43" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC43" t="n">
         <v>0.0</v>
@@ -11700,7 +11697,7 @@
         <v>0.0</v>
       </c>
       <c r="AH43" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="44">
@@ -11708,7 +11705,7 @@
         <v>169</v>
       </c>
       <c r="B44" t="n">
-        <v>1909.0</v>
+        <v>1921.0</v>
       </c>
       <c r="C44" t="s">
         <v>212</v>
@@ -11732,16 +11729,16 @@
         <v>326</v>
       </c>
       <c r="J44" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="K44" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="L44" t="n">
-        <v>690.0</v>
+        <v>780.0</v>
       </c>
       <c r="M44" t="n">
-        <v>7.7</v>
+        <v>8.7</v>
       </c>
       <c r="N44" t="n">
         <v>0.0</v>
@@ -11774,34 +11771,34 @@
         <v>0.3</v>
       </c>
       <c r="X44" t="n">
-        <v>1.0</v>
+        <v>1.1</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Z44" t="n">
         <v>14.0</v>
       </c>
       <c r="AA44" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="AB44" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="AC44" t="n">
         <v>0.0</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="AE44" t="n">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="AF44" t="n">
         <v>0.0</v>
       </c>
       <c r="AG44" t="n">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="AH44" t="n">
         <v>0.04</v>
